--- a/Preprocessed_data/Database_recode_V2.xlsx
+++ b/Preprocessed_data/Database_recode_V2.xlsx
@@ -355,14 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD214"/>
+  <dimension ref="A1:CE214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="82" max="82" width="20.7109375" style="2" customWidth="1"/>
+    <col min="83" max="83" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -773,6 +773,11 @@
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
           <t>last_news_date</t>
         </is>
       </c>
@@ -941,7 +946,7 @@
         </is>
       </c>
       <c r="AK2">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -1107,7 +1112,12 @@
           <t>alive_with_recurrence</t>
         </is>
       </c>
-      <c r="CD2" s="2">
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE2" s="2">
         <v>44852</v>
       </c>
     </row>
@@ -1311,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="AU3">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AV3">
         <v>13</v>
@@ -1355,7 +1365,7 @@
         <v>13.98</v>
       </c>
       <c r="BI3">
-        <v>90.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="BJ3">
         <v>11.6</v>
@@ -1438,7 +1448,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD3" s="2">
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE3" s="2">
         <v>44463</v>
       </c>
     </row>
@@ -1769,7 +1784,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD4" s="2">
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE4" s="2">
         <v>43574</v>
       </c>
     </row>
@@ -2100,7 +2120,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD5" s="2">
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE5" s="2">
         <v>44904</v>
       </c>
     </row>
@@ -2304,22 +2329,22 @@
         <v>45</v>
       </c>
       <c r="AU6">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="AV6">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="AW6">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AX6">
-        <v>8.859999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY6">
         <v>2.17</v>
       </c>
       <c r="AZ6">
-        <v>5.43</v>
+        <v>4.94</v>
       </c>
       <c r="BA6">
         <v>1.5</v>
@@ -2431,7 +2456,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD6" s="2">
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE6" s="2">
         <v>44459</v>
       </c>
     </row>
@@ -2626,7 +2656,7 @@
         <v>70</v>
       </c>
       <c r="AR7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AS7">
         <v>2.7</v>
@@ -2765,7 +2795,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD7" s="2">
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE7" s="2">
         <v>44918</v>
       </c>
     </row>
@@ -3013,22 +3048,22 @@
         <v>10.9</v>
       </c>
       <c r="BI8">
-        <v>64.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="BJ8">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="BK8">
         <v>265</v>
       </c>
       <c r="BL8">
-        <v>10.28</v>
+        <v>11.62</v>
       </c>
       <c r="BM8">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="BN8">
-        <v>6.4</v>
+        <v>6.99</v>
       </c>
       <c r="BO8">
         <v>1</v>
@@ -3099,7 +3134,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD8" s="2">
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE8" s="2">
         <v>44918</v>
       </c>
     </row>
@@ -3267,7 +3307,7 @@
         </is>
       </c>
       <c r="AK9">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -3303,7 +3343,7 @@
         <v>45</v>
       </c>
       <c r="AU9">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AV9">
         <v>14.3</v>
@@ -3433,7 +3473,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD9" s="2">
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE9" s="2">
         <v>44918</v>
       </c>
     </row>
@@ -3718,7 +3763,7 @@
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>high_grade</t>
+          <t>intermediate_grade</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -3767,7 +3812,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD10" s="2">
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE10" s="2">
         <v>44888</v>
       </c>
     </row>
@@ -3971,7 +4021,7 @@
         <v>44</v>
       </c>
       <c r="AU11">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AV11">
         <v>12.8</v>
@@ -4098,7 +4148,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD11" s="2">
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE11" s="2">
         <v>44819</v>
       </c>
     </row>
@@ -4287,13 +4342,13 @@
         <v>95</v>
       </c>
       <c r="AP12">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AQ12">
         <v>83</v>
       </c>
       <c r="AR12">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AS12">
         <v>1.8</v>
@@ -4429,7 +4484,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD12" s="2">
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE12" s="2">
         <v>44629</v>
       </c>
     </row>
@@ -4659,7 +4719,7 @@
         </is>
       </c>
       <c r="BC13">
-        <v>89</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="BD13">
         <v>9.699999999999999</v>
@@ -4677,7 +4737,7 @@
         <v>5.48</v>
       </c>
       <c r="BI13">
-        <v>75.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="BJ13">
         <v>10.2</v>
@@ -4760,7 +4820,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD13" s="2">
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE13" s="2">
         <v>43590</v>
       </c>
     </row>
@@ -4949,7 +5014,7 @@
         <v>91</v>
       </c>
       <c r="AP14">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AQ14">
         <v>88</v>
@@ -5091,7 +5156,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD14" s="2">
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE14" s="2">
         <v>44739</v>
       </c>
     </row>
@@ -5259,7 +5329,7 @@
         </is>
       </c>
       <c r="AK15">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -5422,7 +5492,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD15" s="2">
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE15" s="2">
         <v>44777</v>
       </c>
     </row>
@@ -5756,7 +5831,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD16" s="2">
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE16" s="2">
         <v>44776</v>
       </c>
     </row>
@@ -5960,16 +6040,16 @@
         <v>43</v>
       </c>
       <c r="AU17">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AV17">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="AW17">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AX17">
-        <v>9.9</v>
+        <v>7.06</v>
       </c>
       <c r="AY17">
         <v>1.67</v>
@@ -6004,7 +6084,7 @@
         <v>13.67</v>
       </c>
       <c r="BI17">
-        <v>89.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="BJ17">
         <v>11.2</v>
@@ -6090,7 +6170,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD17" s="2">
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE17" s="2">
         <v>44630</v>
       </c>
     </row>
@@ -6421,7 +6506,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD18" s="2">
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE18" s="2">
         <v>44636</v>
       </c>
     </row>
@@ -6669,7 +6759,7 @@
         <v>6.6</v>
       </c>
       <c r="BI19">
-        <v>113.1</v>
+        <v>128.7</v>
       </c>
       <c r="BJ19">
         <v>12.3</v>
@@ -6755,7 +6845,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD19" s="2">
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE19" s="2">
         <v>43709</v>
       </c>
     </row>
@@ -7086,7 +7181,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD20" s="2">
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE20" s="2">
         <v>44918</v>
       </c>
     </row>
@@ -7316,7 +7416,7 @@
         </is>
       </c>
       <c r="BC21">
-        <v>89.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="BD21">
         <v>11.1</v>
@@ -7334,7 +7434,7 @@
         <v>8.16</v>
       </c>
       <c r="BI21">
-        <v>110.9</v>
+        <v>105.5</v>
       </c>
       <c r="BJ21">
         <v>9.9</v>
@@ -7417,7 +7517,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD21" s="2">
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE21" s="2">
         <v>44252</v>
       </c>
     </row>
@@ -7585,7 +7690,7 @@
         </is>
       </c>
       <c r="AK22">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -7751,7 +7856,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD22" s="2">
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE22" s="2">
         <v>44915</v>
       </c>
     </row>
@@ -7919,7 +8029,7 @@
         </is>
       </c>
       <c r="AK23">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -7940,13 +8050,13 @@
         <v>99</v>
       </c>
       <c r="AP23">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AQ23">
         <v>68</v>
       </c>
       <c r="AR23">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AS23">
         <v>4.4</v>
@@ -8082,7 +8192,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD23" s="2">
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE23" s="2">
         <v>44921</v>
       </c>
     </row>
@@ -8277,7 +8392,7 @@
         <v>110</v>
       </c>
       <c r="AR24">
-        <v>102</v>
+        <v>100.2</v>
       </c>
       <c r="AS24">
         <v>348.3</v>
@@ -8312,7 +8427,7 @@
         </is>
       </c>
       <c r="BC24">
-        <v>71.40000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="BD24">
         <v>8.9</v>
@@ -8330,7 +8445,7 @@
         <v>18.86</v>
       </c>
       <c r="BI24">
-        <v>121.4</v>
+        <v>127.6</v>
       </c>
       <c r="BJ24">
         <v>10.5</v>
@@ -8413,7 +8528,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD24" s="2">
+      <c r="CD24" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE24" s="2">
         <v>44608</v>
       </c>
     </row>
@@ -8643,7 +8763,7 @@
         </is>
       </c>
       <c r="BC25">
-        <v>94.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="BD25">
         <v>10.9</v>
@@ -8747,7 +8867,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD25" s="2">
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE25" s="2">
         <v>44817</v>
       </c>
     </row>
@@ -9078,7 +9203,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD26" s="2">
+      <c r="CD26" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE26" s="2">
         <v>44812</v>
       </c>
     </row>
@@ -9246,7 +9376,7 @@
         </is>
       </c>
       <c r="AK27">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -9412,7 +9542,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD27" s="2">
+      <c r="CD27" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE27" s="2">
         <v>44378</v>
       </c>
     </row>
@@ -9746,7 +9881,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD28" s="2">
+      <c r="CD28" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE28" s="2">
         <v>44872</v>
       </c>
     </row>
@@ -10000,13 +10140,13 @@
         <v>12.1</v>
       </c>
       <c r="BK29">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BL29">
-        <v>10.29</v>
+        <v>11.77</v>
       </c>
       <c r="BM29">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="BN29">
         <v>7.59</v>
@@ -10077,7 +10217,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD29" s="2">
+      <c r="CD29" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE29" s="2">
         <v>44922</v>
       </c>
     </row>
@@ -10408,7 +10553,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD30" s="2">
+      <c r="CD30" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE30" s="2">
         <v>44922</v>
       </c>
     </row>
@@ -10742,7 +10892,12 @@
           <t>alive_with_recurrence</t>
         </is>
       </c>
-      <c r="CD31" s="2">
+      <c r="CD31" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE31" s="2">
         <v>44845</v>
       </c>
     </row>
@@ -11076,7 +11231,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD32" s="2">
+      <c r="CD32" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE32" s="2">
         <v>44777</v>
       </c>
     </row>
@@ -11407,7 +11567,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD33" s="2">
+      <c r="CD33" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE33" s="2">
         <v>44903</v>
       </c>
     </row>
@@ -11741,7 +11906,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD34" s="2">
+      <c r="CD34" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE34" s="2">
         <v>44769</v>
       </c>
     </row>
@@ -12072,7 +12242,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD35" s="2">
+      <c r="CD35" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE35" s="2">
         <v>44783</v>
       </c>
     </row>
@@ -12403,7 +12578,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD36" s="2">
+      <c r="CD36" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE36" s="2">
         <v>44727</v>
       </c>
     </row>
@@ -12571,7 +12751,7 @@
         </is>
       </c>
       <c r="AK37">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -12734,7 +12914,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD37" s="2">
+      <c r="CD37" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE37" s="2">
         <v>44486</v>
       </c>
     </row>
@@ -12982,22 +13167,22 @@
         <v>12.42</v>
       </c>
       <c r="BI38">
-        <v>88.7</v>
+        <v>94</v>
       </c>
       <c r="BJ38">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="BK38">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="BL38">
-        <v>10.67</v>
+        <v>11.63</v>
       </c>
       <c r="BM38">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="BN38">
-        <v>7.5</v>
+        <v>7.58</v>
       </c>
       <c r="BO38">
         <v>1</v>
@@ -13068,7 +13253,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD38" s="2">
+      <c r="CD38" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE38" s="2">
         <v>44459</v>
       </c>
     </row>
@@ -13257,7 +13447,7 @@
         <v>67</v>
       </c>
       <c r="AP39">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AQ39">
         <v>56</v>
@@ -13298,7 +13488,7 @@
         </is>
       </c>
       <c r="BC39">
-        <v>94.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="BD39">
         <v>13.3</v>
@@ -13316,7 +13506,7 @@
         <v>12.5</v>
       </c>
       <c r="BI39">
-        <v>144.9</v>
+        <v>133.6</v>
       </c>
       <c r="BJ39">
         <v>12</v>
@@ -13402,7 +13592,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD39" s="2">
+      <c r="CD39" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE39" s="2">
         <v>44116</v>
       </c>
     </row>
@@ -13736,7 +13931,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD40" s="2">
+      <c r="CD40" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE40" s="2">
         <v>44832</v>
       </c>
     </row>
@@ -13966,7 +14166,7 @@
         </is>
       </c>
       <c r="BC41">
-        <v>90.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="BD41">
         <v>12.7</v>
@@ -13984,7 +14184,7 @@
         <v>12.07</v>
       </c>
       <c r="BI41">
-        <v>105.5</v>
+        <v>113.1</v>
       </c>
       <c r="BJ41">
         <v>8.199999999999999</v>
@@ -14067,7 +14267,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD41" s="2">
+      <c r="CD41" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE41" s="2">
         <v>44830</v>
       </c>
     </row>
@@ -14235,7 +14440,7 @@
         </is>
       </c>
       <c r="AK42">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -14398,7 +14603,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD42" s="2">
+      <c r="CD42" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE42" s="2">
         <v>44806</v>
       </c>
     </row>
@@ -14599,10 +14809,10 @@
         <v>3.9</v>
       </c>
       <c r="AT43">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU43">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AV43">
         <v>15.2</v>
@@ -14729,7 +14939,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD43" s="2">
+      <c r="CD43" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE43" s="2">
         <v>44823</v>
       </c>
     </row>
@@ -14927,19 +15142,19 @@
         <v>109</v>
       </c>
       <c r="AS44">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU44">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AV44">
         <v>15.2</v>
       </c>
       <c r="AW44">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AX44">
         <v>8.52</v>
@@ -15060,7 +15275,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD44" s="2">
+      <c r="CD44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE44" s="2">
         <v>44916</v>
       </c>
     </row>
@@ -15261,7 +15481,7 @@
         <v>4</v>
       </c>
       <c r="AT45">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU45">
         <v>0.31</v>
@@ -15394,7 +15614,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD45" s="2">
+      <c r="CD45" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE45" s="2">
         <v>44924</v>
       </c>
     </row>
@@ -15654,10 +15879,10 @@
         <v>30.97</v>
       </c>
       <c r="BM46">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="BN46">
-        <v>7.13</v>
+        <v>7.77</v>
       </c>
       <c r="BO46">
         <v>3</v>
@@ -15679,7 +15904,7 @@
       </c>
       <c r="BS46" t="inlineStr">
         <is>
-          <t>high_grade</t>
+          <t>intermediate_grade</t>
         </is>
       </c>
       <c r="BT46" t="inlineStr">
@@ -15725,7 +15950,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD46" s="2">
+      <c r="CD46" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE46" s="2">
         <v>44869</v>
       </c>
     </row>
@@ -16056,7 +16286,12 @@
           <t>alive_with_recurrence</t>
         </is>
       </c>
-      <c r="CD47" s="2">
+      <c r="CD47" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE47" s="2">
         <v>44923</v>
       </c>
     </row>
@@ -16304,7 +16539,7 @@
         <v>9.91</v>
       </c>
       <c r="BI48">
-        <v>76.09999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="BJ48">
         <v>12.3</v>
@@ -16313,10 +16548,10 @@
         <v>200</v>
       </c>
       <c r="BL48">
-        <v>10.29</v>
+        <v>9.84</v>
       </c>
       <c r="BM48">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="BN48">
         <v>7.12</v>
@@ -16390,7 +16625,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD48" s="2">
+      <c r="CD48" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE48" s="2">
         <v>44573</v>
       </c>
     </row>
@@ -16724,7 +16964,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD49" s="2">
+      <c r="CD49" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE49" s="2">
         <v>44804</v>
       </c>
     </row>
@@ -16975,19 +17220,19 @@
         <v>70.2</v>
       </c>
       <c r="BJ50">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="BK50">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BL50">
-        <v>8.140000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="BM50">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="BN50">
-        <v>5.71</v>
+        <v>5.83</v>
       </c>
       <c r="BO50">
         <v>2</v>
@@ -17055,7 +17300,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD50" s="2">
+      <c r="CD50" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE50" s="2">
         <v>43915</v>
       </c>
     </row>
@@ -17386,7 +17636,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD51" s="2">
+      <c r="CD51" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE51" s="2">
         <v>44734</v>
       </c>
     </row>
@@ -17554,7 +17809,7 @@
         </is>
       </c>
       <c r="AK52">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -17717,7 +17972,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD52" s="2">
+      <c r="CD52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE52" s="2">
         <v>44860</v>
       </c>
     </row>
@@ -17947,7 +18207,7 @@
         </is>
       </c>
       <c r="BC53">
-        <v>94.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="BD53">
         <v>10.6</v>
@@ -17965,7 +18225,7 @@
         <v>11.92</v>
       </c>
       <c r="BI53">
-        <v>128.7</v>
+        <v>130.7</v>
       </c>
       <c r="BJ53">
         <v>8.199999999999999</v>
@@ -18051,7 +18311,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD53" s="2">
+      <c r="CD53" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE53" s="2">
         <v>43467</v>
       </c>
     </row>
@@ -18281,7 +18546,7 @@
         </is>
       </c>
       <c r="BC54">
-        <v>89.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="BD54">
         <v>10.9</v>
@@ -18299,7 +18564,7 @@
         <v>10.36</v>
       </c>
       <c r="BI54">
-        <v>100</v>
+        <v>105.5</v>
       </c>
       <c r="BJ54">
         <v>10.8</v>
@@ -18385,7 +18650,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD54" s="2">
+      <c r="CD54" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE54" s="2">
         <v>44872</v>
       </c>
     </row>
@@ -18553,7 +18823,7 @@
         </is>
       </c>
       <c r="AK55">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AL55" t="inlineStr">
         <is>
@@ -18719,7 +18989,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD55" s="2">
+      <c r="CD55" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE55" s="2">
         <v>44925</v>
       </c>
     </row>
@@ -18976,7 +19251,7 @@
         <v>163</v>
       </c>
       <c r="BL56">
-        <v>10.59</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="BM56">
         <v>1.73</v>
@@ -19053,7 +19328,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD56" s="2">
+      <c r="CD56" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE56" s="2">
         <v>43533</v>
       </c>
     </row>
@@ -19387,7 +19667,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD57" s="2">
+      <c r="CD57" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE57" s="2">
         <v>44881</v>
       </c>
     </row>
@@ -19721,7 +20006,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD58" s="2">
+      <c r="CD58" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE58" s="2">
         <v>44837</v>
       </c>
     </row>
@@ -19889,7 +20179,7 @@
         </is>
       </c>
       <c r="AK59">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AL59" t="inlineStr">
         <is>
@@ -20052,7 +20342,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD59" s="2">
+      <c r="CD59" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE59" s="2">
         <v>44931</v>
       </c>
     </row>
@@ -20383,7 +20678,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD60" s="2">
+      <c r="CD60" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE60" s="2">
         <v>44874</v>
       </c>
     </row>
@@ -20714,7 +21014,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD61" s="2">
+      <c r="CD61" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE61" s="2">
         <v>44873</v>
       </c>
     </row>
@@ -20962,22 +21267,22 @@
         <v>6.11</v>
       </c>
       <c r="BI62">
-        <v>113.1</v>
+        <v>112.1</v>
       </c>
       <c r="BJ62">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="BK62">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="BL62">
         <v>9.869999999999999</v>
       </c>
       <c r="BM62">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="BN62">
-        <v>6.79</v>
+        <v>6.07</v>
       </c>
       <c r="BO62">
         <v>1</v>
@@ -21045,7 +21350,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD62" s="2">
+      <c r="CD62" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE62" s="2">
         <v>44931</v>
       </c>
     </row>
@@ -21234,7 +21544,7 @@
         <v>110</v>
       </c>
       <c r="AP63">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AQ63">
         <v>82</v>
@@ -21379,7 +21689,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD63" s="2">
+      <c r="CD63" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE63" s="2">
         <v>44931</v>
       </c>
     </row>
@@ -21574,7 +21889,7 @@
         <v>85</v>
       </c>
       <c r="AR64">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AS64">
         <v>0.9</v>
@@ -21710,7 +22025,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD64" s="2">
+      <c r="CD64" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE64" s="2">
         <v>44764</v>
       </c>
     </row>
@@ -22041,7 +22361,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD65" s="2">
+      <c r="CD65" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE65" s="2">
         <v>44889</v>
       </c>
     </row>
@@ -22245,7 +22570,7 @@
         <v>43</v>
       </c>
       <c r="AU66">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="AV66">
         <v>12.7</v>
@@ -22372,7 +22697,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD66" s="2">
+      <c r="CD66" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE66" s="2">
         <v>44931</v>
       </c>
     </row>
@@ -22620,22 +22950,22 @@
         <v>7.42</v>
       </c>
       <c r="BI67">
-        <v>56.5</v>
+        <v>62.8</v>
       </c>
       <c r="BJ67">
-        <v>12.9</v>
+        <v>13.3</v>
       </c>
       <c r="BK67">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="BL67">
-        <v>9.869999999999999</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="BM67">
         <v>1.89</v>
       </c>
       <c r="BN67">
-        <v>5.83</v>
+        <v>5.9</v>
       </c>
       <c r="BO67">
         <v>1</v>
@@ -22703,7 +23033,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD67" s="2">
+      <c r="CD67" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE67" s="2">
         <v>44931</v>
       </c>
     </row>
@@ -23037,7 +23372,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD68" s="2">
+      <c r="CD68" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE68" s="2">
         <v>44809</v>
       </c>
     </row>
@@ -23232,7 +23572,7 @@
         <v>79</v>
       </c>
       <c r="AR69">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS69">
         <v>5</v>
@@ -23368,7 +23708,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD69" s="2">
+      <c r="CD69" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE69" s="2">
         <v>44670</v>
       </c>
     </row>
@@ -23616,13 +23961,13 @@
         <v>18.55</v>
       </c>
       <c r="BI70">
-        <v>58.4</v>
+        <v>62.8</v>
       </c>
       <c r="BJ70">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="BK70">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="BL70">
         <v>12.11</v>
@@ -23631,7 +23976,7 @@
         <v>2.4</v>
       </c>
       <c r="BN70">
-        <v>6.99</v>
+        <v>6.65</v>
       </c>
       <c r="BO70">
         <v>1</v>
@@ -23702,7 +24047,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD70" s="2">
+      <c r="CD70" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE70" s="2">
         <v>44929</v>
       </c>
     </row>
@@ -24033,7 +24383,12 @@
           <t>alive_with_recurrence</t>
         </is>
       </c>
-      <c r="CD71" s="2">
+      <c r="CD71" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE71" s="2">
         <v>44692</v>
       </c>
     </row>
@@ -24263,7 +24618,7 @@
         </is>
       </c>
       <c r="BC72">
-        <v>55.66</v>
+        <v>55.7</v>
       </c>
       <c r="BD72">
         <v>12.5</v>
@@ -24364,7 +24719,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD72" s="2">
+      <c r="CD72" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE72" s="2">
         <v>44848</v>
       </c>
     </row>
@@ -24695,7 +25055,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD73" s="2">
+      <c r="CD73" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE73" s="2">
         <v>44916</v>
       </c>
     </row>
@@ -25029,7 +25394,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD74" s="2">
+      <c r="CD74" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE74" s="2">
         <v>44467</v>
       </c>
     </row>
@@ -25227,25 +25597,25 @@
         <v>121</v>
       </c>
       <c r="AS75">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT75">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU75">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="AV75">
         <v>15.5</v>
       </c>
       <c r="AW75">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AX75">
         <v>8.119999999999999</v>
       </c>
       <c r="AY75">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AZ75">
         <v>5.11</v>
@@ -25360,7 +25730,12 @@
           <t>alive_with_recurrence</t>
         </is>
       </c>
-      <c r="CD75" s="2">
+      <c r="CD75" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE75" s="2">
         <v>44942</v>
       </c>
     </row>
@@ -25552,7 +25927,7 @@
         <v>106</v>
       </c>
       <c r="AQ76">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR76">
         <v>116</v>
@@ -25694,7 +26069,12 @@
           <t>alive_with_recurrence</t>
         </is>
       </c>
-      <c r="CD76" s="2">
+      <c r="CD76" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE76" s="2">
         <v>44420</v>
       </c>
     </row>
@@ -25942,7 +26322,7 @@
         <v>18.18</v>
       </c>
       <c r="BI77">
-        <v>58.3</v>
+        <v>62.8</v>
       </c>
       <c r="BJ77">
         <v>12.8</v>
@@ -25951,13 +26331,13 @@
         <v>248</v>
       </c>
       <c r="BL77">
-        <v>11.71</v>
+        <v>10.29</v>
       </c>
       <c r="BM77">
-        <v>2.15</v>
+        <v>1.74</v>
       </c>
       <c r="BN77">
-        <v>6.68</v>
+        <v>6.23</v>
       </c>
       <c r="BO77">
         <v>1</v>
@@ -26028,7 +26408,12 @@
           <t>alive_with_recurrence</t>
         </is>
       </c>
-      <c r="CD77" s="2">
+      <c r="CD77" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE77" s="2">
         <v>44664</v>
       </c>
     </row>
@@ -26359,7 +26744,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD78" s="2">
+      <c r="CD78" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE78" s="2">
         <v>43893</v>
       </c>
     </row>
@@ -26690,7 +27080,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD79" s="2">
+      <c r="CD79" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE79" s="2">
         <v>44914</v>
       </c>
     </row>
@@ -26858,7 +27253,7 @@
         </is>
       </c>
       <c r="AK80">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="AL80" t="inlineStr">
         <is>
@@ -26879,7 +27274,7 @@
         <v>80</v>
       </c>
       <c r="AP80">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AQ80">
         <v>65</v>
@@ -27021,7 +27416,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD80" s="2">
+      <c r="CD80" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE80" s="2">
         <v>44914</v>
       </c>
     </row>
@@ -27352,7 +27752,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD81" s="2">
+      <c r="CD81" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE81" s="2">
         <v>44755</v>
       </c>
     </row>
@@ -27471,7 +27876,7 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>central</t>
+          <t>peripheral</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
@@ -27603,19 +28008,19 @@
         <v>76.09999999999999</v>
       </c>
       <c r="BJ82">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="BK82">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="BL82">
         <v>10.85</v>
       </c>
       <c r="BM82">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="BN82">
-        <v>6.4</v>
+        <v>6.42</v>
       </c>
       <c r="BO82">
         <v>1</v>
@@ -27683,7 +28088,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD82" s="2">
+      <c r="CD82" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE82" s="2">
         <v>44420</v>
       </c>
     </row>
@@ -28014,7 +28424,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD83" s="2">
+      <c r="CD83" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE83" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -28348,7 +28763,12 @@
           <t>alive_with_recurrence</t>
         </is>
       </c>
-      <c r="CD84" s="2">
+      <c r="CD84" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE84" s="2">
         <v>44685</v>
       </c>
     </row>
@@ -28679,7 +29099,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD85" s="2">
+      <c r="CD85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE85" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -29013,7 +29438,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD86" s="2">
+      <c r="CD86" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE86" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -29217,7 +29647,7 @@
         <v>44</v>
       </c>
       <c r="AU87">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="AV87">
         <v>14</v>
@@ -29246,16 +29676,16 @@
         <v>60.9</v>
       </c>
       <c r="BD87">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="BE87">
         <v>264</v>
       </c>
       <c r="BF87">
-        <v>13.31</v>
+        <v>13.72</v>
       </c>
       <c r="BG87">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="BH87">
         <v>11.11</v>
@@ -29344,7 +29774,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD87" s="2">
+      <c r="CD87" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE87" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -29675,7 +30110,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD88" s="2">
+      <c r="CD88" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE88" s="2">
         <v>44875</v>
       </c>
     </row>
@@ -30009,7 +30449,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD89" s="2">
+      <c r="CD89" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE89" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -30340,7 +30785,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD90" s="2">
+      <c r="CD90" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE90" s="2">
         <v>44432</v>
       </c>
     </row>
@@ -30666,7 +31116,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD91" s="2">
+      <c r="CD91" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE91" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -31000,7 +31455,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD92" s="2">
+      <c r="CD92" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE92" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -31195,7 +31655,7 @@
         <v>47</v>
       </c>
       <c r="AR93">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AS93">
         <v>4</v>
@@ -31230,7 +31690,7 @@
         </is>
       </c>
       <c r="BC93">
-        <v>59.6</v>
+        <v>63.3</v>
       </c>
       <c r="BD93">
         <v>12.9</v>
@@ -31334,7 +31794,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD93" s="2">
+      <c r="CD93" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE93" s="2">
         <v>43682</v>
       </c>
     </row>
@@ -31668,7 +32133,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD94" s="2">
+      <c r="CD94" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE94" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -31916,22 +32386,22 @@
         <v>14.32</v>
       </c>
       <c r="BI95">
-        <v>62.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="BJ95">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="BK95">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="BL95">
         <v>11.55</v>
       </c>
       <c r="BM95">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BN95">
-        <v>6.79</v>
+        <v>7.01</v>
       </c>
       <c r="BO95">
         <v>2</v>
@@ -32002,7 +32472,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD95" s="2">
+      <c r="CD95" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE95" s="2">
         <v>43375</v>
       </c>
     </row>
@@ -32203,7 +32678,7 @@
         <v>21.1</v>
       </c>
       <c r="AT96">
-        <v>42.6</v>
+        <v>42</v>
       </c>
       <c r="AU96">
         <v>0.25</v>
@@ -32232,7 +32707,7 @@
         </is>
       </c>
       <c r="BC96">
-        <v>97.5</v>
+        <v>94.5</v>
       </c>
       <c r="BD96">
         <v>13</v>
@@ -32336,7 +32811,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD96" s="2">
+      <c r="CD96" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE96" s="2">
         <v>44790</v>
       </c>
     </row>
@@ -32670,7 +33150,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD97" s="2">
+      <c r="CD97" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE97" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -33004,7 +33489,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD98" s="2">
+      <c r="CD98" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE98" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -33335,7 +33825,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD99" s="2">
+      <c r="CD99" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE99" s="2">
         <v>44231</v>
       </c>
     </row>
@@ -33669,7 +34164,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD100" s="2">
+      <c r="CD100" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE100" s="2">
         <v>43454</v>
       </c>
     </row>
@@ -33870,10 +34370,10 @@
         <v>26</v>
       </c>
       <c r="AT101">
-        <v>43</v>
+        <v>42.6</v>
       </c>
       <c r="AU101">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="AV101">
         <v>12.6</v>
@@ -34003,7 +34503,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD101" s="2">
+      <c r="CD101" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE101" s="2">
         <v>45003</v>
       </c>
     </row>
@@ -34207,7 +34712,7 @@
         <v>42.6</v>
       </c>
       <c r="AU102">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AV102">
         <v>15.6</v>
@@ -34334,7 +34839,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD102" s="2">
+      <c r="CD102" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE102" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -34668,7 +35178,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD103" s="2">
+      <c r="CD103" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE103" s="2">
         <v>44909</v>
       </c>
     </row>
@@ -34836,7 +35351,7 @@
         </is>
       </c>
       <c r="AK104">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="AL104" t="inlineStr">
         <is>
@@ -34999,7 +35514,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD104" s="2">
+      <c r="CD104" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE104" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -35333,7 +35853,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD105" s="2">
+      <c r="CD105" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE105" s="2">
         <v>44938</v>
       </c>
     </row>
@@ -35667,7 +36192,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD106" s="2">
+      <c r="CD106" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE106" s="2">
         <v>43720</v>
       </c>
     </row>
@@ -35868,10 +36398,10 @@
         <v>2.3</v>
       </c>
       <c r="AT107">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU107">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AV107">
         <v>14.4</v>
@@ -36001,7 +36531,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD107" s="2">
+      <c r="CD107" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE107" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -36231,7 +36766,7 @@
         </is>
       </c>
       <c r="BC108">
-        <v>64.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="BD108">
         <v>11.7</v>
@@ -36249,22 +36784,22 @@
         <v>8.01</v>
       </c>
       <c r="BI108">
-        <v>90.5</v>
+        <v>94</v>
       </c>
       <c r="BJ108">
         <v>12.6</v>
       </c>
       <c r="BK108">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="BL108">
-        <v>9.869999999999999</v>
+        <v>10.29</v>
       </c>
       <c r="BM108">
         <v>1.61</v>
       </c>
       <c r="BN108">
-        <v>6.79</v>
+        <v>6.86</v>
       </c>
       <c r="BO108">
         <v>3</v>
@@ -36332,7 +36867,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD108" s="2">
+      <c r="CD108" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE108" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -36524,7 +37064,7 @@
         <v>97</v>
       </c>
       <c r="AQ109">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR109">
         <v>102</v>
@@ -36663,7 +37203,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD109" s="2">
+      <c r="CD109" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE109" s="2">
         <v>44324</v>
       </c>
     </row>
@@ -36997,7 +37542,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD110" s="2">
+      <c r="CD110" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE110" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -37245,7 +37795,7 @@
         <v>7.47</v>
       </c>
       <c r="BI111">
-        <v>88.7</v>
+        <v>90.5</v>
       </c>
       <c r="BJ111">
         <v>12.8</v>
@@ -37257,7 +37807,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BM111">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BN111">
         <v>6.07</v>
@@ -37328,7 +37878,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD111" s="2">
+      <c r="CD111" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE111" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -37576,22 +38131,22 @@
         <v>9.08</v>
       </c>
       <c r="BI112">
-        <v>90.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="BJ112">
         <v>12.7</v>
       </c>
       <c r="BK112">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="BL112">
-        <v>9.609999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="BM112">
         <v>1.65</v>
       </c>
       <c r="BN112">
-        <v>6.24</v>
+        <v>6.39</v>
       </c>
       <c r="BO112">
         <v>1</v>
@@ -37659,7 +38214,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD112" s="2">
+      <c r="CD112" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE112" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -37990,7 +38550,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD113" s="2">
+      <c r="CD113" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE113" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -38321,7 +38886,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD114" s="2">
+      <c r="CD114" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE114" s="2">
         <v>44845</v>
       </c>
     </row>
@@ -38655,7 +39225,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD115" s="2">
+      <c r="CD115" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE115" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -38853,13 +39428,13 @@
         <v>95</v>
       </c>
       <c r="AS116">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AT116">
         <v>43</v>
       </c>
       <c r="AU116">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="AV116">
         <v>13.8</v>
@@ -38989,7 +39564,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD116" s="2">
+      <c r="CD116" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE116" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -39323,7 +39903,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD117" s="2">
+      <c r="CD117" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE117" s="2">
         <v>44177</v>
       </c>
     </row>
@@ -39657,7 +40242,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD118" s="2">
+      <c r="CD118" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE118" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -39825,7 +40415,7 @@
         </is>
       </c>
       <c r="AK119">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="AL119" t="inlineStr">
         <is>
@@ -39849,7 +40439,7 @@
         <v>94</v>
       </c>
       <c r="AQ119">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR119">
         <v>89</v>
@@ -39991,7 +40581,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD119" s="2">
+      <c r="CD119" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE119" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -40325,7 +40920,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD120" s="2">
+      <c r="CD120" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE120" s="2">
         <v>43923</v>
       </c>
     </row>
@@ -40523,13 +41123,13 @@
         <v>89</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT121">
         <v>45</v>
       </c>
       <c r="AU121">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="AV121">
         <v>13.7</v>
@@ -40538,13 +41138,13 @@
         <v>245</v>
       </c>
       <c r="AX121">
-        <v>8.859999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY121">
-        <v>2.28</v>
+        <v>2.57</v>
       </c>
       <c r="AZ121">
-        <v>4.72</v>
+        <v>5.43</v>
       </c>
       <c r="BA121">
         <v>1.5</v>
@@ -40656,7 +41256,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD121" s="2">
+      <c r="CD121" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE121" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -40845,7 +41450,7 @@
         <v>123</v>
       </c>
       <c r="AP122">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AQ122">
         <v>98</v>
@@ -40987,7 +41592,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD122" s="2">
+      <c r="CD122" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE122" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -41318,7 +41928,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD123" s="2">
+      <c r="CD123" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE123" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -41649,7 +42264,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD124" s="2">
+      <c r="CD124" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE124" s="2">
         <v>43248</v>
       </c>
     </row>
@@ -41847,7 +42467,7 @@
         <v>89</v>
       </c>
       <c r="AS125">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT125">
         <v>43</v>
@@ -41980,7 +42600,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD125" s="2">
+      <c r="CD125" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE125" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -42148,7 +42773,7 @@
         </is>
       </c>
       <c r="AK126">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="AL126" t="inlineStr">
         <is>
@@ -42311,7 +42936,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD126" s="2">
+      <c r="CD126" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE126" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -42645,7 +43275,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD127" s="2">
+      <c r="CD127" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE127" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -42976,7 +43611,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD128" s="2">
+      <c r="CD128" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE128" s="2">
         <v>44629</v>
       </c>
     </row>
@@ -43307,7 +43947,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD129" s="2">
+      <c r="CD129" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE129" s="2">
         <v>44937</v>
       </c>
     </row>
@@ -43537,7 +44182,7 @@
         </is>
       </c>
       <c r="BC130">
-        <v>72.8</v>
+        <v>65.5</v>
       </c>
       <c r="BD130">
         <v>13.1</v>
@@ -43592,7 +44237,7 @@
       </c>
       <c r="BS130" t="inlineStr">
         <is>
-          <t>intermediate_grade</t>
+          <t>high_grade</t>
         </is>
       </c>
       <c r="BT130" t="inlineStr">
@@ -43641,7 +44286,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD130" s="2">
+      <c r="CD130" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE130" s="2">
         <v>43781</v>
       </c>
     </row>
@@ -43889,7 +44539,7 @@
         <v>12.99</v>
       </c>
       <c r="BI131">
-        <v>96.59999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="BJ131">
         <v>11.6</v>
@@ -43898,13 +44548,13 @@
         <v>229</v>
       </c>
       <c r="BL131">
-        <v>10.01</v>
+        <v>10.28</v>
       </c>
       <c r="BM131">
         <v>1.74</v>
       </c>
       <c r="BN131">
-        <v>7.24</v>
+        <v>6.89</v>
       </c>
       <c r="BO131">
         <v>1</v>
@@ -43975,7 +44625,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD131" s="2">
+      <c r="CD131" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE131" s="2">
         <v>44252</v>
       </c>
     </row>
@@ -44170,7 +44825,7 @@
         <v>76</v>
       </c>
       <c r="AR132">
-        <v>102</v>
+        <v>100.2</v>
       </c>
       <c r="AS132">
         <v>12.3</v>
@@ -44205,7 +44860,7 @@
         </is>
       </c>
       <c r="BC132">
-        <v>98.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="BD132">
         <v>13.7</v>
@@ -44306,7 +44961,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD132" s="2">
+      <c r="CD132" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE132" s="2">
         <v>44798</v>
       </c>
     </row>
@@ -44536,7 +45196,7 @@
         </is>
       </c>
       <c r="BC133">
-        <v>94.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="BD133">
         <v>10.9</v>
@@ -44554,7 +45214,7 @@
         <v>10.33</v>
       </c>
       <c r="BI133">
-        <v>89.5</v>
+        <v>79.7</v>
       </c>
       <c r="BJ133">
         <v>10</v>
@@ -44640,7 +45300,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD133" s="2">
+      <c r="CD133" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE133" s="2">
         <v>44937</v>
       </c>
     </row>
@@ -44882,28 +45547,28 @@
         <v>13.29</v>
       </c>
       <c r="BG134">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="BH134">
         <v>10.92</v>
       </c>
       <c r="BI134">
-        <v>78.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="BJ134">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="BK134">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="BL134">
-        <v>11.25</v>
+        <v>10.76</v>
       </c>
       <c r="BM134">
         <v>1.84</v>
       </c>
       <c r="BN134">
-        <v>6.05</v>
+        <v>5.57</v>
       </c>
       <c r="BO134">
         <v>1</v>
@@ -44971,7 +45636,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD134" s="2">
+      <c r="CD134" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE134" s="2">
         <v>44693</v>
       </c>
     </row>
@@ -45169,7 +45839,7 @@
         <v>90</v>
       </c>
       <c r="AS135">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="AT135">
         <v>45</v>
@@ -45178,19 +45848,19 @@
         <v>0.29</v>
       </c>
       <c r="AV135">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="AW135">
         <v>224</v>
       </c>
       <c r="AX135">
-        <v>8.52</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AY135">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="AZ135">
-        <v>4.9</v>
+        <v>4.89</v>
       </c>
       <c r="BA135">
         <v>2.3</v>
@@ -45305,7 +45975,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD135" s="2">
+      <c r="CD135" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE135" s="2">
         <v>43565</v>
       </c>
     </row>
@@ -45636,7 +46311,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD136" s="2">
+      <c r="CD136" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE136" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -45825,7 +46505,7 @@
         <v>81</v>
       </c>
       <c r="AP137">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AQ137">
         <v>76</v>
@@ -45834,7 +46514,7 @@
         <v>86</v>
       </c>
       <c r="AS137">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT137">
         <v>43</v>
@@ -45967,7 +46647,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD137" s="2">
+      <c r="CD137" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE137" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -46162,7 +46847,7 @@
         <v>96</v>
       </c>
       <c r="AR138">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AS138">
         <v>3.6</v>
@@ -46215,22 +46900,22 @@
         <v>12.38</v>
       </c>
       <c r="BI138">
-        <v>88.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="BJ138">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="BK138">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BL138">
-        <v>10.28</v>
+        <v>10.01</v>
       </c>
       <c r="BM138">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="BN138">
-        <v>6.05</v>
+        <v>6.23</v>
       </c>
       <c r="BO138">
         <v>1</v>
@@ -46301,7 +46986,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD138" s="2">
+      <c r="CD138" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE138" s="2">
         <v>44644</v>
       </c>
     </row>
@@ -46496,7 +47186,7 @@
         <v>52</v>
       </c>
       <c r="AR139">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AS139">
         <v>21.5</v>
@@ -46635,7 +47325,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD139" s="2">
+      <c r="CD139" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE139" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -46824,7 +47519,7 @@
         <v>75</v>
       </c>
       <c r="AP140">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AQ140">
         <v>68</v>
@@ -46969,7 +47664,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD140" s="2">
+      <c r="CD140" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE140" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -47300,7 +48000,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD141" s="2">
+      <c r="CD141" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE141" s="2">
         <v>44755</v>
       </c>
     </row>
@@ -47634,7 +48339,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD142" s="2">
+      <c r="CD142" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE142" s="2">
         <v>44708</v>
       </c>
     </row>
@@ -47823,7 +48533,7 @@
         <v>52</v>
       </c>
       <c r="AP143">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ143">
         <v>99</v>
@@ -47968,7 +48678,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD143" s="2">
+      <c r="CD143" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE143" s="2">
         <v>43838</v>
       </c>
     </row>
@@ -48302,7 +49017,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD144" s="2">
+      <c r="CD144" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE144" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -48535,22 +49255,22 @@
         <v>97.5</v>
       </c>
       <c r="BD145">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="BE145">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="BF145">
         <v>15.36</v>
       </c>
       <c r="BG145">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="BH145">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="BI145">
-        <v>185.4</v>
+        <v>179.6</v>
       </c>
       <c r="BJ145">
         <v>12.4</v>
@@ -48633,7 +49353,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD145" s="2">
+      <c r="CD145" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE145" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -48964,7 +49689,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD146" s="2">
+      <c r="CD146" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE146" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -49212,7 +49942,7 @@
         <v>8.970000000000001</v>
       </c>
       <c r="BI147">
-        <v>90.90000000000001</v>
+        <v>127.6</v>
       </c>
       <c r="BJ147">
         <v>12.1</v>
@@ -49221,13 +49951,13 @@
         <v>237</v>
       </c>
       <c r="BL147">
-        <v>10.89</v>
+        <v>11</v>
       </c>
       <c r="BM147">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="BN147">
-        <v>7.13</v>
+        <v>7.47</v>
       </c>
       <c r="BO147">
         <v>1</v>
@@ -49298,7 +50028,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD147" s="2">
+      <c r="CD147" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE147" s="2">
         <v>44195</v>
       </c>
     </row>
@@ -49629,7 +50364,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD148" s="2">
+      <c r="CD148" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE148" s="2">
         <v>44630</v>
       </c>
     </row>
@@ -49833,22 +50573,22 @@
         <v>43</v>
       </c>
       <c r="AU149">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AV149">
         <v>13.3</v>
       </c>
       <c r="AW149">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="AX149">
-        <v>8.18</v>
+        <v>7.89</v>
       </c>
       <c r="AY149">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="AZ149">
-        <v>4.84</v>
+        <v>4.33</v>
       </c>
       <c r="BA149">
         <v>2.3</v>
@@ -49960,7 +50700,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD149" s="2">
+      <c r="CD149" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE149" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -50291,7 +51036,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD150" s="2">
+      <c r="CD150" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE150" s="2">
         <v>44459</v>
       </c>
     </row>
@@ -50625,7 +51375,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD151" s="2">
+      <c r="CD151" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE151" s="2">
         <v>44445</v>
       </c>
     </row>
@@ -50671,7 +51426,7 @@
         <v>18.44</v>
       </c>
       <c r="K152">
-        <v>1.780043519333252</v>
+        <v>1.768748056443275</v>
       </c>
       <c r="L152">
         <v>10</v>
@@ -50927,7 +51682,7 @@
         <v>2</v>
       </c>
       <c r="BW152">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BX152" t="inlineStr">
         <is>
@@ -50959,7 +51714,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD152" s="2">
+      <c r="CD152" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE152" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -51148,7 +51908,7 @@
         <v>50</v>
       </c>
       <c r="AP153">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ153">
         <v>54</v>
@@ -51293,7 +52053,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD153" s="2">
+      <c r="CD153" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE153" s="2">
         <v>44467</v>
       </c>
     </row>
@@ -51541,7 +52306,7 @@
         <v>11.06</v>
       </c>
       <c r="BI154">
-        <v>88.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="BJ154">
         <v>12.4</v>
@@ -51627,7 +52392,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD154" s="2">
+      <c r="CD154" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE154" s="2">
         <v>44463</v>
       </c>
     </row>
@@ -51878,19 +52648,19 @@
         <v>83.59999999999999</v>
       </c>
       <c r="BJ155">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="BK155">
         <v>237</v>
       </c>
       <c r="BL155">
-        <v>10.29</v>
+        <v>10.67</v>
       </c>
       <c r="BM155">
         <v>1.61</v>
       </c>
       <c r="BN155">
-        <v>6.07</v>
+        <v>6.86</v>
       </c>
       <c r="BO155">
         <v>1</v>
@@ -51961,7 +52731,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD155" s="2">
+      <c r="CD155" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE155" s="2">
         <v>44375</v>
       </c>
     </row>
@@ -52191,7 +52966,7 @@
         </is>
       </c>
       <c r="BC156">
-        <v>89</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="BD156">
         <v>12.9</v>
@@ -52209,7 +52984,7 @@
         <v>14.21</v>
       </c>
       <c r="BI156">
-        <v>105.5</v>
+        <v>102.3</v>
       </c>
       <c r="BJ156">
         <v>12</v>
@@ -52295,7 +53070,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD156" s="2">
+      <c r="CD156" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE156" s="2">
         <v>44459</v>
       </c>
     </row>
@@ -52481,7 +53261,7 @@
         </is>
       </c>
       <c r="AO157">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AP157">
         <v>89</v>
@@ -52525,7 +53305,7 @@
         </is>
       </c>
       <c r="BC157">
-        <v>64.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="BD157">
         <v>10.6</v>
@@ -52543,22 +53323,22 @@
         <v>10.92</v>
       </c>
       <c r="BI157">
-        <v>83.59999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="BJ157">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="BK157">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="BL157">
         <v>11.55</v>
       </c>
       <c r="BM157">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="BN157">
-        <v>5.95</v>
+        <v>6.86</v>
       </c>
       <c r="BO157">
         <v>1</v>
@@ -52626,7 +53406,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD157" s="2">
+      <c r="CD157" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE157" s="2">
         <v>43559</v>
       </c>
     </row>
@@ -52880,16 +53665,16 @@
         <v>12.3</v>
       </c>
       <c r="BK158">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="BL158">
-        <v>11.62</v>
+        <v>11.82</v>
       </c>
       <c r="BM158">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="BN158">
-        <v>7.77</v>
+        <v>7.91</v>
       </c>
       <c r="BO158">
         <v>1</v>
@@ -52960,7 +53745,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD158" s="2">
+      <c r="CD158" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE158" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -53149,7 +53939,7 @@
         <v>94</v>
       </c>
       <c r="AP159">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AQ159">
         <v>74</v>
@@ -53294,7 +54084,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD159" s="2">
+      <c r="CD159" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE159" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -53542,19 +54337,19 @@
         <v>9.369999999999999</v>
       </c>
       <c r="BI160">
-        <v>128.7</v>
+        <v>127.6</v>
       </c>
       <c r="BJ160">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="BK160">
         <v>292</v>
       </c>
       <c r="BL160">
-        <v>11.55</v>
+        <v>11.82</v>
       </c>
       <c r="BM160">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="BN160">
         <v>7.59</v>
@@ -53628,7 +54423,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD160" s="2">
+      <c r="CD160" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE160" s="2">
         <v>43445</v>
       </c>
     </row>
@@ -53823,16 +54623,16 @@
         <v>72</v>
       </c>
       <c r="AR161">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AS161">
         <v>110.6</v>
       </c>
       <c r="AT161">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="AU161">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AV161">
         <v>9.199999999999999</v>
@@ -53858,7 +54658,7 @@
         </is>
       </c>
       <c r="BC161">
-        <v>94.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="BD161">
         <v>9</v>
@@ -53876,7 +54676,7 @@
         <v>13.02</v>
       </c>
       <c r="BI161">
-        <v>133.6</v>
+        <v>121.4</v>
       </c>
       <c r="BJ161">
         <v>10.6</v>
@@ -53962,7 +54762,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD161" s="2">
+      <c r="CD161" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE161" s="2">
         <v>44950</v>
       </c>
     </row>
@@ -54213,19 +55018,19 @@
         <v>105.5</v>
       </c>
       <c r="BJ162">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="BK162">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="BL162">
-        <v>11.25</v>
+        <v>10.76</v>
       </c>
       <c r="BM162">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BN162">
-        <v>6.08</v>
+        <v>6.23</v>
       </c>
       <c r="BO162">
         <v>1</v>
@@ -54293,7 +55098,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD162" s="2">
+      <c r="CD162" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE162" s="2">
         <v>44950</v>
       </c>
     </row>
@@ -54547,16 +55357,16 @@
         <v>12.6</v>
       </c>
       <c r="BK163">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="BL163">
         <v>10.01</v>
       </c>
       <c r="BM163">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="BN163">
-        <v>6.32</v>
+        <v>6.08</v>
       </c>
       <c r="BO163">
         <v>1</v>
@@ -54624,7 +55434,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD163" s="2">
+      <c r="CD163" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE163" s="2">
         <v>44950</v>
       </c>
     </row>
@@ -54958,7 +55773,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD164" s="2">
+      <c r="CD164" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE164" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -55162,7 +55982,7 @@
         <v>40</v>
       </c>
       <c r="AU165">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AV165">
         <v>14.1</v>
@@ -55289,7 +56109,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD165" s="2">
+      <c r="CD165" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE165" s="2">
         <v>44911</v>
       </c>
     </row>
@@ -55620,7 +56445,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD166" s="2">
+      <c r="CD166" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE166" s="2">
         <v>44906</v>
       </c>
     </row>
@@ -55954,7 +56784,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD167" s="2">
+      <c r="CD167" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE167" s="2">
         <v>44950</v>
       </c>
     </row>
@@ -56146,7 +56981,7 @@
         <v>106</v>
       </c>
       <c r="AQ168">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AR168">
         <v>110</v>
@@ -56285,7 +57120,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD168" s="2">
+      <c r="CD168" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE168" s="2">
         <v>44950</v>
       </c>
     </row>
@@ -56486,7 +57326,7 @@
         <v>43.7</v>
       </c>
       <c r="AT169">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU169">
         <v>0.29</v>
@@ -56570,7 +57410,7 @@
       </c>
       <c r="BS169" t="inlineStr">
         <is>
-          <t>high_grade</t>
+          <t>intermediate_grade</t>
         </is>
       </c>
       <c r="BT169" t="inlineStr">
@@ -56619,7 +57459,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD169" s="2">
+      <c r="CD169" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE169" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -56849,7 +57694,7 @@
         </is>
       </c>
       <c r="BC170">
-        <v>95.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="BD170">
         <v>11.7</v>
@@ -56867,7 +57712,7 @@
         <v>14.62</v>
       </c>
       <c r="BI170">
-        <v>90.2</v>
+        <v>100</v>
       </c>
       <c r="BJ170">
         <v>10.7</v>
@@ -56950,7 +57795,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD170" s="2">
+      <c r="CD170" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE170" s="2">
         <v>44950</v>
       </c>
     </row>
@@ -57118,7 +57968,7 @@
         </is>
       </c>
       <c r="AK171">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL171" t="inlineStr">
         <is>
@@ -57284,7 +58134,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD171" s="2">
+      <c r="CD171" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE171" s="2">
         <v>44049</v>
       </c>
     </row>
@@ -57514,7 +58369,7 @@
         </is>
       </c>
       <c r="BC172">
-        <v>89.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="BD172">
         <v>11.6</v>
@@ -57532,7 +58387,7 @@
         <v>8.66</v>
       </c>
       <c r="BI172">
-        <v>100</v>
+        <v>79.7</v>
       </c>
       <c r="BJ172">
         <v>12.2</v>
@@ -57618,7 +58473,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD172" s="2">
+      <c r="CD172" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE172" s="2">
         <v>44249</v>
       </c>
     </row>
@@ -57952,7 +58812,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD173" s="2">
+      <c r="CD173" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE173" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -58273,7 +59138,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD174" s="2">
+      <c r="CD174" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE174" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -58477,7 +59347,7 @@
         <v>44</v>
       </c>
       <c r="AU175">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="AV175">
         <v>13.3</v>
@@ -58604,7 +59474,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD175" s="2">
+      <c r="CD175" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE175" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -58834,7 +59709,7 @@
         </is>
       </c>
       <c r="BC176">
-        <v>62.4</v>
+        <v>60.9</v>
       </c>
       <c r="BD176">
         <v>12.7</v>
@@ -58935,7 +59810,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD176" s="2">
+      <c r="CD176" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE176" s="2">
         <v>44900</v>
       </c>
     </row>
@@ -59103,7 +59983,7 @@
         </is>
       </c>
       <c r="AK177">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="AL177" t="inlineStr">
         <is>
@@ -59124,7 +60004,7 @@
         <v>53</v>
       </c>
       <c r="AP177">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AQ177">
         <v>82</v>
@@ -59266,7 +60146,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD177" s="2">
+      <c r="CD177" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE177" s="2">
         <v>44326</v>
       </c>
     </row>
@@ -59556,7 +60441,7 @@
       </c>
       <c r="BT178" t="inlineStr">
         <is>
-          <t>TTF1_neg</t>
+          <t>TTF1_pos</t>
         </is>
       </c>
       <c r="BU178" t="inlineStr">
@@ -59600,7 +60485,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD178" s="2">
+      <c r="CD178" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE178" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -59931,7 +60821,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD179" s="2">
+      <c r="CD179" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE179" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -60262,7 +61157,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD180" s="2">
+      <c r="CD180" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE180" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -60510,13 +61410,13 @@
         <v>11.74</v>
       </c>
       <c r="BI181">
-        <v>57.8</v>
+        <v>55.3</v>
       </c>
       <c r="BJ181">
         <v>12.6</v>
       </c>
       <c r="BK181">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BL181">
         <v>10.28</v>
@@ -60525,7 +61425,7 @@
         <v>2.22</v>
       </c>
       <c r="BN181">
-        <v>6.4</v>
+        <v>6.59</v>
       </c>
       <c r="BO181">
         <v>1</v>
@@ -60593,7 +61493,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD181" s="2">
+      <c r="CD181" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE181" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -60782,10 +61687,10 @@
         <v>105</v>
       </c>
       <c r="AP182">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AQ182">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AR182">
         <v>104</v>
@@ -60924,7 +61829,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD182" s="2">
+      <c r="CD182" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE182" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -61125,10 +62035,10 @@
         <v>2</v>
       </c>
       <c r="AT183">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU183">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AV183">
         <v>15.1</v>
@@ -61137,7 +62047,7 @@
         <v>284</v>
       </c>
       <c r="AX183">
-        <v>8.67</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AY183">
         <v>2.29</v>
@@ -61255,7 +62165,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD183" s="2">
+      <c r="CD183" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE183" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -61503,7 +62418,7 @@
         <v>11.47</v>
       </c>
       <c r="BI184">
-        <v>81.3</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="BJ184">
         <v>9.699999999999999</v>
@@ -61586,7 +62501,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD184" s="2">
+      <c r="CD184" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE184" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -61917,7 +62837,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD185" s="2">
+      <c r="CD185" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE185" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -62112,31 +63037,31 @@
         <v>98</v>
       </c>
       <c r="AR186">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AS186">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AT186">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AU186">
         <v>0.3</v>
       </c>
       <c r="AV186">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="AW186">
         <v>277</v>
       </c>
       <c r="AX186">
-        <v>8.83</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AY186">
         <v>1.78</v>
       </c>
       <c r="AZ186">
-        <v>5.35</v>
+        <v>4.86</v>
       </c>
       <c r="BA186">
         <v>3.27</v>
@@ -62248,7 +63173,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD186" s="2">
+      <c r="CD186" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE186" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -62407,7 +63337,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>normal_mucosa</t>
+          <t>inflammatory_mucosa</t>
         </is>
       </c>
       <c r="AJ187" t="inlineStr">
@@ -62502,13 +63432,13 @@
         <v>12</v>
       </c>
       <c r="BK187">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BL187">
-        <v>9.84</v>
+        <v>9.94</v>
       </c>
       <c r="BM187">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="BN187">
         <v>6.81</v>
@@ -62579,7 +63509,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD187" s="2">
+      <c r="CD187" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE187" s="2">
         <v>43681</v>
       </c>
     </row>
@@ -62675,11 +63610,11 @@
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>ground_glass_opacity</t>
+          <t>mass</t>
         </is>
       </c>
       <c r="W188">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="X188" t="inlineStr">
         <is>
@@ -62747,7 +63682,7 @@
         </is>
       </c>
       <c r="AK188">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AL188" t="inlineStr">
         <is>
@@ -62910,7 +63845,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD188" s="2">
+      <c r="CD188" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE188" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -63140,7 +64080,7 @@
         </is>
       </c>
       <c r="BC189">
-        <v>64.59999999999999</v>
+        <v>56.5</v>
       </c>
       <c r="BD189">
         <v>12.3</v>
@@ -63158,22 +64098,22 @@
         <v>12.21</v>
       </c>
       <c r="BI189">
-        <v>85.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="BJ189">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="BK189">
         <v>228</v>
       </c>
       <c r="BL189">
-        <v>10.99</v>
+        <v>12.87</v>
       </c>
       <c r="BM189">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="BN189">
-        <v>7.01</v>
+        <v>7.77</v>
       </c>
       <c r="BO189">
         <v>2</v>
@@ -63241,7 +64181,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD189" s="2">
+      <c r="CD189" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE189" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -63471,7 +64416,7 @@
         </is>
       </c>
       <c r="BC190">
-        <v>86.40000000000001</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="BD190">
         <v>13.2</v>
@@ -63489,7 +64434,7 @@
         <v>7.63</v>
       </c>
       <c r="BI190">
-        <v>120.9</v>
+        <v>117.8</v>
       </c>
       <c r="BJ190">
         <v>11.8</v>
@@ -63572,7 +64517,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD190" s="2">
+      <c r="CD190" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE190" s="2">
         <v>43504</v>
       </c>
     </row>
@@ -63903,7 +64853,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD191" s="2">
+      <c r="CD191" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE191" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -64151,7 +65106,7 @@
         <v>9.41</v>
       </c>
       <c r="BI192">
-        <v>85.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="BJ192">
         <v>11.5</v>
@@ -64234,7 +65189,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD192" s="2">
+      <c r="CD192" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE192" s="2">
         <v>44971</v>
       </c>
     </row>
@@ -64432,28 +65392,28 @@
         <v>104</v>
       </c>
       <c r="AS193">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="AT193">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AU193">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AV193">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="AW193">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="AX193">
-        <v>8.65</v>
+        <v>7.6</v>
       </c>
       <c r="AY193">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AZ193">
-        <v>5.32</v>
+        <v>4.62</v>
       </c>
       <c r="BA193">
         <v>6.28</v>
@@ -64476,7 +65436,7 @@
         <v>16.65</v>
       </c>
       <c r="BG193">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="BH193">
         <v>12.72</v>
@@ -64524,7 +65484,7 @@
       </c>
       <c r="BT193" t="inlineStr">
         <is>
-          <t>TTF1_neg</t>
+          <t>TTF1_pos</t>
         </is>
       </c>
       <c r="BU193" t="inlineStr">
@@ -64565,7 +65525,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD193" s="2">
+      <c r="CD193" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="CE193" s="2">
         <v>43713</v>
       </c>
     </row>
@@ -64766,7 +65731,7 @@
         <v>9.4</v>
       </c>
       <c r="AT194">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU194">
         <v>0.33</v>
@@ -64896,7 +65861,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD194" s="2">
+      <c r="CD194" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE194" s="2">
         <v>44973</v>
       </c>
     </row>
@@ -65088,10 +66058,10 @@
         <v>106</v>
       </c>
       <c r="AQ195">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AR195">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS195">
         <v>1</v>
@@ -65227,7 +66197,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD195" s="2">
+      <c r="CD195" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE195" s="2">
         <v>44973</v>
       </c>
     </row>
@@ -65457,7 +66432,7 @@
         </is>
       </c>
       <c r="BC196">
-        <v>97.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="BD196">
         <v>10.6</v>
@@ -65475,7 +66450,7 @@
         <v>7.39</v>
       </c>
       <c r="BI196">
-        <v>100</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="BJ196">
         <v>9.699999999999999</v>
@@ -65558,7 +66533,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD196" s="2">
+      <c r="CD196" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE196" s="2">
         <v>43253</v>
       </c>
     </row>
@@ -65889,7 +66869,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD197" s="2">
+      <c r="CD197" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE197" s="2">
         <v>44978</v>
       </c>
     </row>
@@ -66220,7 +67205,12 @@
           <t>deceased</t>
         </is>
       </c>
-      <c r="CD198" s="2">
+      <c r="CD198" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE198" s="2">
         <v>44528</v>
       </c>
     </row>
@@ -66450,7 +67440,7 @@
         </is>
       </c>
       <c r="BC199">
-        <v>63.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="BD199">
         <v>12.9</v>
@@ -66551,7 +67541,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD199" s="2">
+      <c r="CD199" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE199" s="2">
         <v>44978</v>
       </c>
     </row>
@@ -66882,7 +67877,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD200" s="2">
+      <c r="CD200" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE200" s="2">
         <v>44978</v>
       </c>
     </row>
@@ -67213,7 +68213,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD201" s="2">
+      <c r="CD201" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE201" s="2">
         <v>44978</v>
       </c>
     </row>
@@ -67408,7 +68413,7 @@
         <v>80</v>
       </c>
       <c r="AR202">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AS202">
         <v>11.2</v>
@@ -67443,7 +68448,7 @@
         </is>
       </c>
       <c r="BC202">
-        <v>53.5</v>
+        <v>55.66</v>
       </c>
       <c r="BD202">
         <v>12.2</v>
@@ -67476,7 +68481,7 @@
         <v>1.61</v>
       </c>
       <c r="BN202">
-        <v>6.39</v>
+        <v>6.79</v>
       </c>
       <c r="BO202">
         <v>2</v>
@@ -67544,7 +68549,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD202" s="2">
+      <c r="CD202" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE202" s="2">
         <v>44978</v>
       </c>
     </row>
@@ -67875,7 +68885,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD203" s="2">
+      <c r="CD203" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE203" s="2">
         <v>44978</v>
       </c>
     </row>
@@ -68070,7 +69085,7 @@
         <v>60</v>
       </c>
       <c r="AR204">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AS204">
         <v>9.5</v>
@@ -68206,7 +69221,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD204" s="2">
+      <c r="CD204" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE204" s="2">
         <v>44978</v>
       </c>
     </row>
@@ -68395,7 +69415,7 @@
         <v>55</v>
       </c>
       <c r="AP205">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ205">
         <v>67</v>
@@ -68428,7 +69448,7 @@
         <v>5.24</v>
       </c>
       <c r="BA205">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="BB205" t="inlineStr">
         <is>
@@ -68537,7 +69557,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD205" s="2">
+      <c r="CD205" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE205" s="2">
         <v>44978</v>
       </c>
     </row>
@@ -68705,7 +69730,7 @@
         </is>
       </c>
       <c r="AK206">
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
       <c r="AL206" t="inlineStr">
         <is>
@@ -68726,7 +69751,7 @@
         <v>94</v>
       </c>
       <c r="AP206">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AQ206">
         <v>54</v>
@@ -68868,7 +69893,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD206" s="2">
+      <c r="CD206" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE206" s="2">
         <v>44978</v>
       </c>
     </row>
@@ -68964,11 +69994,11 @@
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>mass</t>
+          <t>nodule</t>
         </is>
       </c>
       <c r="W207">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X207" t="inlineStr">
         <is>
@@ -69069,10 +70099,10 @@
         <v>5.5</v>
       </c>
       <c r="AT207">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU207">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AV207">
         <v>14.9</v>
@@ -69090,7 +70120,7 @@
         <v>5.54</v>
       </c>
       <c r="BA207">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="BB207" t="inlineStr">
         <is>
@@ -69098,7 +70128,7 @@
         </is>
       </c>
       <c r="BC207">
-        <v>62.4</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="BD207">
         <v>13.6</v>
@@ -69181,7 +70211,7 @@
       </c>
       <c r="BZ207" t="inlineStr">
         <is>
-          <t>no_embolism</t>
+          <t>embolism</t>
         </is>
       </c>
       <c r="CA207" t="inlineStr">
@@ -69199,7 +70229,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD207" s="2">
+      <c r="CD207" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="CE207" s="2">
         <v>44928</v>
       </c>
     </row>
@@ -69450,19 +70485,19 @@
         <v>76.09999999999999</v>
       </c>
       <c r="BJ208">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="BK208">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BL208">
         <v>9.92</v>
       </c>
       <c r="BM208">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="BN208">
-        <v>6.81</v>
+        <v>6.39</v>
       </c>
       <c r="BO208">
         <v>2</v>
@@ -69530,7 +70565,12 @@
           <t>alive_without_recurrence</t>
         </is>
       </c>
-      <c r="CD208" s="2">
+      <c r="CD208" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE208" s="2">
         <v>44969</v>
       </c>
     </row>
@@ -69861,7 +70901,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD209" s="2">
+      <c r="CD209" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE209" s="2">
         <v>44979</v>
       </c>
     </row>
@@ -70083,7 +71128,7 @@
         <v>2.28</v>
       </c>
       <c r="BA210">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="BB210" t="inlineStr">
         <is>
@@ -70091,7 +71136,7 @@
         </is>
       </c>
       <c r="BC210">
-        <v>89.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="BD210">
         <v>13.5</v>
@@ -70109,7 +71154,7 @@
         <v>7</v>
       </c>
       <c r="BI210">
-        <v>96.59999999999999</v>
+        <v>105.8</v>
       </c>
       <c r="BJ210">
         <v>12.1</v>
@@ -70190,6 +71235,11 @@
       <c r="CC210" t="inlineStr">
         <is>
           <t>alive_no_information</t>
+        </is>
+      </c>
+      <c r="CD210" t="inlineStr">
+        <is>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -70520,7 +71570,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD211" s="2">
+      <c r="CD211" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE211" s="2">
         <v>44946</v>
       </c>
     </row>
@@ -70718,7 +71773,7 @@
         <v>112</v>
       </c>
       <c r="AS212">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AT212">
         <v>39.1</v>
@@ -70851,7 +71906,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD212" s="2">
+      <c r="CD212" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CE212" s="2">
         <v>44946</v>
       </c>
     </row>
@@ -71073,7 +72133,7 @@
         <v>3.9</v>
       </c>
       <c r="BA213">
-        <v>2.13</v>
+        <v>1.57</v>
       </c>
       <c r="BB213" t="inlineStr">
         <is>
@@ -71182,7 +72242,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD213" s="2">
+      <c r="CD213" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE213" s="2">
         <v>44944</v>
       </c>
     </row>
@@ -71412,7 +72477,7 @@
         </is>
       </c>
       <c r="BC214">
-        <v>97.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="BD214">
         <v>14.1</v>
@@ -71513,7 +72578,12 @@
           <t>alive_no_information</t>
         </is>
       </c>
-      <c r="CD214" s="2">
+      <c r="CD214" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="CE214" s="2">
         <v>44946</v>
       </c>
     </row>
